--- a/biology/Zoologie/Aprasia_pulchella/Aprasia_pulchella.xlsx
+++ b/biology/Zoologie/Aprasia_pulchella/Aprasia_pulchella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aprasia pulchella est une espèce de geckos de la famille des Pygopodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aprasia pulchella est une espèce de geckos de la famille des Pygopodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Aprasia pulchella[2] mesure 115 mm dont 45 mm pour la queue.
-C'est un lézard apode[1] de couleur marron soutenu à gris. Sa face ventrale est gris pâle avec les écailles bordées de sombre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Aprasia pulchella mesure 115 mm dont 45 mm pour la queue.
+C'est un lézard apode de couleur marron soutenu à gris. Sa face ventrale est gris pâle avec les écailles bordées de sombre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin pulchellus, « joli », lui a été donné en référence à son aspect[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin pulchellus, « joli », lui a été donné en référence à son aspect.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1839 "1838" : Catalogue of the slender-tongued saurians, with descriptions of many new genera and species. Annals and Magazine of Natural History, sér. 1, vol. 2, p. 331-337 (texte intégral).
 Bocage, 1873 : Sur quelques sauriens nouveaux de la Nouvelle-Calédonie et de l’Australie. Jornal de Sciencias Mathematicas, Physicas e Naturaes, Lisboa, vol. 4, no 9, p. 228-232 (texte intégral).</t>
